--- a/report_folder/report_4.3.b_h.xlsx
+++ b/report_folder/report_4.3.b_h.xlsx
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="F52" s="14" t="n">
@@ -4759,7 +4759,7 @@
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="F53" s="14" t="n">

--- a/report_folder/report_4.3.b_h.xlsx
+++ b/report_folder/report_4.3.b_h.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>100.0% der Karten</t>
+          <t>81.6% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Nächstes Telefonat mit Miguel 💩</t>
+          <t>Aufgabenteilung Lenni Laura 💩</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Person finden die kashana testet! 💩</t>
+          <t>to do Laura 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Konzeptionierung weiterer Funktionen der App</t>
+          <t>Input google site:Ausreisehandbuch 💩</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Wirkung auf der Ebene des Impacts (Gesundheit) messen 💩</t>
+          <t>wiki how: Kochstellen manual</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Wirkungsorientierung qualitative Datenanalyse</t>
+          <t>Austausch mit Finanzteam über kashana</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(43.5%)</t>
+          <t>(34.7%)</t>
         </is>
       </c>
     </row>
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lennard Mörsen</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Till Schöpe</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
@@ -4588,11 +4588,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4606,31 +4606,31 @@
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Micha Landoll</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Lennard Mörsen</t>
+          <t>Micha Landoll</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="F52" s="14" t="n">
@@ -4759,7 +4759,7 @@
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="F53" s="14" t="n">
@@ -4769,7 +4769,7 @@
     <row r="54">
       <c r="E54" t="inlineStr">
         <is>
-          <t>Larissa Böhrkircher</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="F54" s="14" t="n">
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Marie-Sophie Braun</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4936,7 +4936,7 @@
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Maria Lütticke</t>
+          <t>Marie-Sophie Braun</t>
         </is>
       </c>
       <c r="G74" s="35" t="n">

--- a/report_folder/report_4.3.b_h.xlsx
+++ b/report_folder/report_4.3.b_h.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>81.6% der Karten</t>
+          <t>86.5% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Aufgabenteilung Lenni Laura 💩</t>
+          <t>wiki how: Kochstellen manual</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>to do Laura 💩</t>
+          <t>Beratung mit Stephanie planen</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Input google site:Ausreisehandbuch 💩</t>
+          <t>im Jahresbericht Digitalisierungsprojekt vorstellen</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>wiki how: Kochstellen manual</t>
+          <t>Nachprüfen: Zahlen der Technologien der Dorfschulen</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Austausch mit Finanzteam über kashana</t>
+          <t>Feedback von Elsa zu kashana</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(34.7%)</t>
+          <t>(29.7%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Chris Kneip</t>
         </is>
       </c>
       <c r="F52" s="14" t="n">
@@ -4759,7 +4759,7 @@
     <row r="53">
       <c r="E53" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Laura Coordt</t>
         </is>
       </c>
       <c r="F53" s="14" t="n">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>

--- a/report_folder/report_4.3.b_h.xlsx
+++ b/report_folder/report_4.3.b_h.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>86.5% der Karten</t>
+          <t>50.0% der Karten</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>wiki how: Kochstellen manual</t>
+          <t>Neue AP's HASSCO 💩</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Beratung mit Stephanie planen</t>
+          <t>IDA: Dynamische Einkaufsliste</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>im Jahresbericht Digitalisierungsprojekt vorstellen</t>
+          <t>Google Site: HASSCO</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Nachprüfen: Zahlen der Technologien der Dorfschulen</t>
+          <t>Francis Bachelorarbeit 💩</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Feedback von Elsa zu kashana</t>
+          <t>IDA: Testphase 💩</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(29.7%)</t>
+          <t>(33.3%)</t>
         </is>
       </c>
     </row>
@@ -4528,11 +4528,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lennard Mörsen</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Till Schöpe</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4571,13 +4571,8 @@
           <t>4.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Till Schöpe</t>
-        </is>
-      </c>
       <c r="C38" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4586,61 +4581,46 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="C39" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lennard Mörsen</t>
+          <t>Lara Eisler</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Till Schöpe</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="F42" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Maria Lütticke</t>
-        </is>
-      </c>
       <c r="F43" s="14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4663,13 +4643,8 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
-      </c>
       <c r="C48" s="14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4678,13 +4653,8 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Chris Kneip</t>
-        </is>
-      </c>
       <c r="C49" s="14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4693,13 +4663,8 @@
           <t>3.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="C50" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4707,7 +4672,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4716,21 +4681,16 @@
           <t>4.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Lennard Mörsen</t>
-        </is>
-      </c>
       <c r="C51" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Lara Eisler</t>
+        </is>
+      </c>
+      <c r="F51" s="14" t="n">
         <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Till Schöpe</t>
-        </is>
-      </c>
-      <c r="F51" s="14" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4739,41 +4699,21 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Chris Kneip</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
-      </c>
       <c r="F53" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Lara Eisler</t>
-        </is>
-      </c>
       <c r="F54" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4791,11 +4731,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>x</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4803,17 +4743,12 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Laura Coordt</t>
-        </is>
-      </c>
       <c r="B61" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4821,7 +4756,7 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4867,15 +4802,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chris Kneip</t>
+          <t>Lennard Mörsen</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4885,15 +4820,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Laura Coordt</t>
+          <t>Till Schöpe</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4906,13 +4841,8 @@
         <f>B70-B71-B73</f>
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Micha Landoll</t>
-        </is>
-      </c>
       <c r="G72" s="35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4922,25 +4852,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Lennard Mörsen</t>
-        </is>
+        <v>7</v>
       </c>
       <c r="G73" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Marie-Sophie Braun</t>
-        </is>
-      </c>
       <c r="G74" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
